--- a/PERSONAL-ATTENDANCE.xlsx
+++ b/PERSONAL-ATTENDANCE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>PERSONAL ATENDANCE</t>
   </si>
@@ -67,8 +67,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -95,20 +95,82 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -116,7 +178,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,124 +244,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,21 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +528,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -533,159 +551,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,8 +1033,8 @@
   <sheetPr/>
   <dimension ref="A2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1409,13 +1409,18 @@
       <c r="C34" s="5">
         <v>43423</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="5"/>

--- a/PERSONAL-ATTENDANCE.xlsx
+++ b/PERSONAL-ATTENDANCE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>PERSONAL ATENDANCE</t>
   </si>
@@ -67,11 +67,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -95,24 +95,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,8 +131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,13 +149,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -153,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,85 +214,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,25 +260,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,157 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -492,23 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,165 +551,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A2:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:L38"/>
+      <selection activeCell="F36" sqref="F36:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1432,13 +1432,18 @@
       <c r="C36" s="5">
         <v>43425</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="5"/>

--- a/PERSONAL-ATTENDANCE.xlsx
+++ b/PERSONAL-ATTENDANCE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>PERSONAL ATENDANCE</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Week 5</t>
   </si>
   <si>
+    <t>SAKIT</t>
+  </si>
+  <si>
     <t>Week 6</t>
   </si>
   <si>
@@ -68,8 +71,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -101,25 +104,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,112 +187,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,37 +263,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,145 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,30 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +487,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -527,161 +554,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1033,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:L36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1455,20 +1458,25 @@
       <c r="C38" s="5">
         <v>43427</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -1478,6 +1486,9 @@
       </c>
       <c r="C41" s="5">
         <v>43430</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1528,7 +1539,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -1588,7 +1599,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="5"/>
     </row>
